--- a/Symphony/2020/October/All Details/31.10.2020/MC Bank Statement Oct-2020.xlsx
+++ b/Symphony/2020/October/All Details/31.10.2020/MC Bank Statement Oct-2020.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="7" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\MCN\Symphony\2020\October\All Details\31.10.2020\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" tabRatio="599" activeTab="3"/>
   </bookViews>
@@ -12,7 +17,7 @@
     <sheet name="Balance Transfer" sheetId="14" r:id="rId3"/>
     <sheet name="Expence" sheetId="15" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -32,7 +37,7 @@
     <author>LENOVO</author>
   </authors>
   <commentList>
-    <comment ref="D15" authorId="0">
+    <comment ref="D15" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -56,7 +61,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E15" authorId="0">
+    <comment ref="E15" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -80,7 +85,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D16" authorId="0">
+    <comment ref="D16" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -105,7 +110,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H17" authorId="0">
+    <comment ref="H17" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -129,7 +134,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I17" authorId="0">
+    <comment ref="I17" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -153,7 +158,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F22" authorId="0">
+    <comment ref="F22" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -178,7 +183,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F24" authorId="0">
+    <comment ref="F24" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -202,7 +207,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H26" authorId="0">
+    <comment ref="H26" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -665,9 +670,6 @@
     <t>House Rent</t>
   </si>
   <si>
-    <t>Etc</t>
-  </si>
-  <si>
     <t>Amount</t>
   </si>
   <si>
@@ -925,13 +927,16 @@
   <si>
     <t xml:space="preserve">  </t>
   </si>
+  <si>
+    <t>1 % Less</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="50">
     <font>
@@ -2225,14 +2230,14 @@
     <xf numFmtId="0" fontId="16" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="28" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="29" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0">
+    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="5" fillId="0" borderId="0">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="164" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
@@ -3187,6 +3192,30 @@
     <xf numFmtId="2" fontId="39" fillId="35" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="39" fillId="35" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="35" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="35" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="35" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="35" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="35" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="35" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="35" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="45" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3217,34 +3246,10 @@
     <xf numFmtId="1" fontId="39" fillId="35" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="35" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="35" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="39" fillId="35" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="39" fillId="35" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="35" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="35" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="35" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="35" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="35" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="35" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -3338,7 +3343,7 @@
         <xdr:cNvPr id="1845" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{47ED9286-E99E-4170-A6CD-A90D2E00B60F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{47ED9286-E99E-4170-A6CD-A90D2E00B60F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3350,7 +3355,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -3373,14 +3378,14 @@
         </a:ln>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
             </a14:hiddenFill>
           </a:ext>
           <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
@@ -3417,7 +3422,7 @@
         <xdr:cNvPr id="2" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AEF7B42F-C37B-44F8-8D5A-2ED7FEE15E8A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AEF7B42F-C37B-44F8-8D5A-2ED7FEE15E8A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3429,7 +3434,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -3452,14 +3457,14 @@
         </a:ln>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
             </a14:hiddenFill>
           </a:ext>
           <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
@@ -3570,7 +3575,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -3602,9 +3607,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -3636,6 +3642,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -3811,7 +3818,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H85"/>
   <sheetViews>
     <sheetView topLeftCell="A11" workbookViewId="0">
@@ -3846,7 +3853,7 @@
     <row r="3" spans="1:8" ht="16.5" customHeight="1">
       <c r="A3" s="35"/>
       <c r="B3" s="300" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C3" s="300"/>
       <c r="D3" s="300"/>
@@ -3901,7 +3908,7 @@
     <row r="7" spans="1:8">
       <c r="A7" s="35"/>
       <c r="B7" s="40" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C7" s="39">
         <v>430000</v>
@@ -3920,7 +3927,7 @@
     <row r="8" spans="1:8">
       <c r="A8" s="35"/>
       <c r="B8" s="40" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C8" s="39">
         <v>0</v>
@@ -3939,7 +3946,7 @@
     <row r="9" spans="1:8">
       <c r="A9" s="35"/>
       <c r="B9" s="40" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C9" s="39">
         <v>930000</v>
@@ -3958,7 +3965,7 @@
     <row r="10" spans="1:8">
       <c r="A10" s="35"/>
       <c r="B10" s="40" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C10" s="42">
         <v>280000</v>
@@ -3977,7 +3984,7 @@
     <row r="11" spans="1:8">
       <c r="A11" s="35"/>
       <c r="B11" s="40" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C11" s="39">
         <v>560000</v>
@@ -3996,7 +4003,7 @@
     <row r="12" spans="1:8">
       <c r="A12" s="35"/>
       <c r="B12" s="40" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C12" s="39">
         <v>610000</v>
@@ -4015,7 +4022,7 @@
     <row r="13" spans="1:8">
       <c r="A13" s="35"/>
       <c r="B13" s="40" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C13" s="39">
         <v>520000</v>
@@ -4034,7 +4041,7 @@
     <row r="14" spans="1:8">
       <c r="A14" s="35"/>
       <c r="B14" s="40" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C14" s="39">
         <v>0</v>
@@ -4053,7 +4060,7 @@
     <row r="15" spans="1:8">
       <c r="A15" s="35"/>
       <c r="B15" s="40" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C15" s="39">
         <v>1150000</v>
@@ -4072,7 +4079,7 @@
     <row r="16" spans="1:8">
       <c r="A16" s="35"/>
       <c r="B16" s="40" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C16" s="39">
         <v>485000</v>
@@ -4091,7 +4098,7 @@
     <row r="17" spans="1:8">
       <c r="A17" s="35"/>
       <c r="B17" s="40" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C17" s="39">
         <v>530000</v>
@@ -4110,7 +4117,7 @@
     <row r="18" spans="1:8">
       <c r="A18" s="35"/>
       <c r="B18" s="40" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C18" s="39">
         <v>850000</v>
@@ -4129,7 +4136,7 @@
     <row r="19" spans="1:8" ht="12.75" customHeight="1">
       <c r="A19" s="35"/>
       <c r="B19" s="40" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C19" s="39">
         <v>710000</v>
@@ -4148,7 +4155,7 @@
     <row r="20" spans="1:8">
       <c r="A20" s="35"/>
       <c r="B20" s="40" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C20" s="39">
         <v>0</v>
@@ -4167,7 +4174,7 @@
     <row r="21" spans="1:8">
       <c r="A21" s="35"/>
       <c r="B21" s="40" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C21" s="39">
         <v>1570000</v>
@@ -4186,7 +4193,7 @@
     <row r="22" spans="1:8">
       <c r="A22" s="35"/>
       <c r="B22" s="40" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C22" s="39">
         <v>500000</v>
@@ -4205,7 +4212,7 @@
     <row r="23" spans="1:8">
       <c r="A23" s="35"/>
       <c r="B23" s="40" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C23" s="39">
         <v>670000</v>
@@ -4224,7 +4231,7 @@
     <row r="24" spans="1:8">
       <c r="A24" s="35"/>
       <c r="B24" s="40" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C24" s="39">
         <v>380000</v>
@@ -4243,7 +4250,7 @@
     <row r="25" spans="1:8">
       <c r="A25" s="35"/>
       <c r="B25" s="40" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C25" s="39">
         <v>310000</v>
@@ -4262,7 +4269,7 @@
     <row r="26" spans="1:8">
       <c r="A26" s="35"/>
       <c r="B26" s="40" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C26" s="39">
         <v>0</v>
@@ -4281,7 +4288,7 @@
     <row r="27" spans="1:8">
       <c r="A27" s="35"/>
       <c r="B27" s="40" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C27" s="39">
         <v>1300000</v>
@@ -4300,7 +4307,7 @@
     <row r="28" spans="1:8">
       <c r="A28" s="35"/>
       <c r="B28" s="40" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C28" s="39">
         <v>0</v>
@@ -4319,7 +4326,7 @@
     <row r="29" spans="1:8">
       <c r="A29" s="35"/>
       <c r="B29" s="40" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C29" s="39">
         <v>1080000</v>
@@ -4338,7 +4345,7 @@
     <row r="30" spans="1:8">
       <c r="A30" s="35"/>
       <c r="B30" s="40" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C30" s="39">
         <v>300000</v>
@@ -4357,7 +4364,7 @@
     <row r="31" spans="1:8">
       <c r="A31" s="35"/>
       <c r="B31" s="40" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C31" s="39">
         <v>880000</v>
@@ -4376,7 +4383,7 @@
     <row r="32" spans="1:8">
       <c r="A32" s="35"/>
       <c r="B32" s="40" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C32" s="39">
         <v>0</v>
@@ -5014,7 +5021,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -5051,7 +5058,7 @@
     </row>
     <row r="2" spans="1:29" ht="23.25">
       <c r="A2" s="304" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B2" s="305"/>
       <c r="C2" s="305"/>
@@ -5316,7 +5323,7 @@
       </c>
       <c r="C9" s="70"/>
       <c r="D9" s="70" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="E9" s="72">
         <v>62119</v>
@@ -5324,7 +5331,7 @@
       <c r="F9" s="5"/>
       <c r="G9" s="55"/>
       <c r="H9" s="28" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="I9" s="8"/>
       <c r="J9" s="8"/>
@@ -5364,7 +5371,7 @@
         <v>979260.10850000009</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="G10" s="50"/>
       <c r="H10" s="28"/>
@@ -5578,7 +5585,7 @@
     </row>
     <row r="16" spans="1:29" ht="21.75">
       <c r="A16" s="79" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B16" s="94">
         <v>41435</v>
@@ -5731,7 +5738,7 @@
     </row>
     <row r="20" spans="1:29" ht="21.75">
       <c r="A20" s="59" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B20" s="53">
         <v>48895</v>
@@ -5769,7 +5776,7 @@
     </row>
     <row r="21" spans="1:29" ht="21.75">
       <c r="A21" s="59" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B21" s="53">
         <v>59000</v>
@@ -10735,7 +10742,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BI246"/>
   <sheetViews>
     <sheetView topLeftCell="A101" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
@@ -11021,7 +11028,7 @@
     </row>
     <row r="5" spans="1:61" ht="12.6" customHeight="1">
       <c r="A5" s="107" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B5" s="108">
         <v>550220</v>
@@ -11097,7 +11104,7 @@
     </row>
     <row r="6" spans="1:61" ht="12.6" customHeight="1">
       <c r="A6" s="112" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B6" s="113">
         <v>279860</v>
@@ -11173,7 +11180,7 @@
     </row>
     <row r="7" spans="1:61" ht="12.6" customHeight="1">
       <c r="A7" s="112" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B7" s="113">
         <v>255700</v>
@@ -11249,7 +11256,7 @@
     </row>
     <row r="8" spans="1:61" ht="12.6" customHeight="1">
       <c r="A8" s="112" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B8" s="113">
         <v>678220</v>
@@ -11325,7 +11332,7 @@
     </row>
     <row r="9" spans="1:61" ht="12" customHeight="1">
       <c r="A9" s="112" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B9" s="113">
         <v>623545</v>
@@ -11401,7 +11408,7 @@
     </row>
     <row r="10" spans="1:61" ht="12.6" customHeight="1">
       <c r="A10" s="112" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B10" s="113">
         <v>565995</v>
@@ -11477,7 +11484,7 @@
     </row>
     <row r="11" spans="1:61" ht="12.6" customHeight="1">
       <c r="A11" s="112" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B11" s="113">
         <v>692345</v>
@@ -11553,7 +11560,7 @@
     </row>
     <row r="12" spans="1:61" ht="12.6" customHeight="1">
       <c r="A12" s="112" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B12" s="113">
         <v>526840</v>
@@ -11629,7 +11636,7 @@
     </row>
     <row r="13" spans="1:61" ht="12.6" customHeight="1">
       <c r="A13" s="112" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B13" s="113">
         <v>522950</v>
@@ -11705,7 +11712,7 @@
     </row>
     <row r="14" spans="1:61" ht="12.6" customHeight="1">
       <c r="A14" s="112" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B14" s="113">
         <v>600130</v>
@@ -11781,7 +11788,7 @@
     </row>
     <row r="15" spans="1:61" ht="12.6" customHeight="1">
       <c r="A15" s="112" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B15" s="113">
         <v>1015530</v>
@@ -11857,7 +11864,7 @@
     </row>
     <row r="16" spans="1:61" ht="12.6" customHeight="1">
       <c r="A16" s="112" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B16" s="113">
         <v>656580</v>
@@ -11933,7 +11940,7 @@
     </row>
     <row r="17" spans="1:61" ht="12.6" customHeight="1">
       <c r="A17" s="112" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B17" s="113">
         <v>807380</v>
@@ -12009,7 +12016,7 @@
     </row>
     <row r="18" spans="1:61" ht="12.6" customHeight="1">
       <c r="A18" s="112" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B18" s="113">
         <v>791090</v>
@@ -12085,7 +12092,7 @@
     </row>
     <row r="19" spans="1:61" ht="12.6" customHeight="1">
       <c r="A19" s="112" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B19" s="113">
         <v>515085</v>
@@ -12161,7 +12168,7 @@
     </row>
     <row r="20" spans="1:61" ht="12.6" customHeight="1">
       <c r="A20" s="112" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B20" s="113">
         <v>651405</v>
@@ -12237,7 +12244,7 @@
     </row>
     <row r="21" spans="1:61" ht="12.6" customHeight="1">
       <c r="A21" s="112" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B21" s="113">
         <v>389390</v>
@@ -12313,7 +12320,7 @@
     </row>
     <row r="22" spans="1:61" ht="12.6" customHeight="1">
       <c r="A22" s="112" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B22" s="113">
         <v>488840</v>
@@ -12389,7 +12396,7 @@
     </row>
     <row r="23" spans="1:61" ht="12.6" customHeight="1">
       <c r="A23" s="112" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B23" s="113">
         <v>627690</v>
@@ -12465,7 +12472,7 @@
     </row>
     <row r="24" spans="1:61" ht="12.6" customHeight="1">
       <c r="A24" s="112" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B24" s="113">
         <v>563895</v>
@@ -12541,7 +12548,7 @@
     </row>
     <row r="25" spans="1:61" ht="12.6" customHeight="1">
       <c r="A25" s="112" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B25" s="113">
         <v>517900</v>
@@ -12617,7 +12624,7 @@
     </row>
     <row r="26" spans="1:61" ht="12.6" customHeight="1">
       <c r="A26" s="112" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B26" s="113">
         <v>686215</v>
@@ -12693,7 +12700,7 @@
     </row>
     <row r="27" spans="1:61" ht="12.6" customHeight="1">
       <c r="A27" s="112" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B27" s="113">
         <v>233880</v>
@@ -12769,7 +12776,7 @@
     </row>
     <row r="28" spans="1:61" ht="12.6" customHeight="1">
       <c r="A28" s="112" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B28" s="113">
         <v>833580</v>
@@ -12845,7 +12852,7 @@
     </row>
     <row r="29" spans="1:61" ht="12.6" customHeight="1">
       <c r="A29" s="112" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B29" s="113">
         <v>919165</v>
@@ -12921,7 +12928,7 @@
     </row>
     <row r="30" spans="1:61" ht="12.6" customHeight="1">
       <c r="A30" s="112" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B30" s="113">
         <v>895670</v>
@@ -13425,7 +13432,7 @@
         <v>11720</v>
       </c>
       <c r="D37" s="106" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="E37" s="119"/>
       <c r="F37" s="114"/>
@@ -13496,7 +13503,7 @@
         <v>5600</v>
       </c>
       <c r="D38" s="106" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="E38" s="118"/>
       <c r="F38" s="121"/>
@@ -13567,7 +13574,7 @@
         <v>5140</v>
       </c>
       <c r="D39" s="153" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="E39" s="118"/>
       <c r="F39" s="114"/>
@@ -13638,7 +13645,7 @@
         <v>4300</v>
       </c>
       <c r="D40" s="153" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="E40" s="118"/>
       <c r="F40" s="114"/>
@@ -13709,7 +13716,7 @@
         <v>20000</v>
       </c>
       <c r="D41" s="106" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E41" s="157"/>
       <c r="F41" s="114"/>
@@ -13771,7 +13778,7 @@
     </row>
     <row r="42" spans="1:61" ht="12.6" customHeight="1">
       <c r="A42" s="156" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B42" s="106" t="s">
         <v>126</v>
@@ -13780,7 +13787,7 @@
         <v>1580</v>
       </c>
       <c r="D42" s="106" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="F42" s="160"/>
       <c r="G42" s="161"/>
@@ -13841,16 +13848,16 @@
     </row>
     <row r="43" spans="1:61" ht="12.6" customHeight="1">
       <c r="A43" s="284" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B43" s="106" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C43" s="113">
         <v>20000</v>
       </c>
       <c r="D43" s="106" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="E43" s="119"/>
       <c r="F43" s="322" t="s">
@@ -14181,7 +14188,7 @@
         <v>218875</v>
       </c>
       <c r="D48" s="180" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="E48" s="118"/>
       <c r="F48" s="142"/>
@@ -14249,7 +14256,7 @@
         <v>267297</v>
       </c>
       <c r="D49" s="183" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="E49" s="118"/>
       <c r="F49" s="142"/>
@@ -14317,7 +14324,7 @@
         <v>62000</v>
       </c>
       <c r="D50" s="178" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="E50" s="118"/>
       <c r="F50" s="142"/>
@@ -14385,7 +14392,7 @@
         <v>70700</v>
       </c>
       <c r="D51" s="186" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="E51" s="118"/>
       <c r="F51" s="110"/>
@@ -14454,7 +14461,7 @@
         <v>187000</v>
       </c>
       <c r="D52" s="178" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="E52" s="118"/>
       <c r="F52" s="142"/>
@@ -14523,7 +14530,7 @@
         <v>507481</v>
       </c>
       <c r="D53" s="189" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="E53" s="118"/>
       <c r="F53" s="111"/>
@@ -14592,7 +14599,7 @@
         <v>190680</v>
       </c>
       <c r="D54" s="178" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="E54" s="118"/>
       <c r="F54" s="142"/>
@@ -14654,14 +14661,14 @@
     </row>
     <row r="55" spans="1:61" ht="12" customHeight="1">
       <c r="A55" s="187" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B55" s="183"/>
       <c r="C55" s="182">
         <v>30000</v>
       </c>
       <c r="D55" s="189" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="E55" s="118"/>
       <c r="F55" s="110"/>
@@ -14723,14 +14730,14 @@
     </row>
     <row r="56" spans="1:61" ht="12" customHeight="1">
       <c r="A56" s="185" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B56" s="110"/>
       <c r="C56" s="182">
         <v>43600</v>
       </c>
       <c r="D56" s="186" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="E56" s="118"/>
       <c r="F56" s="110"/>
@@ -14792,14 +14799,14 @@
     </row>
     <row r="57" spans="1:61" ht="12" customHeight="1">
       <c r="A57" s="185" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B57" s="110"/>
       <c r="C57" s="182">
         <v>10000</v>
       </c>
       <c r="D57" s="186" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="E57" s="118"/>
       <c r="F57" s="110"/>
@@ -14861,14 +14868,14 @@
     </row>
     <row r="58" spans="1:61" ht="12" customHeight="1">
       <c r="A58" s="185" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B58" s="110"/>
       <c r="C58" s="182">
         <v>10000</v>
       </c>
       <c r="D58" s="186" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="E58" s="118"/>
       <c r="F58" s="111"/>
@@ -15140,7 +15147,7 @@
         <v>51388</v>
       </c>
       <c r="D62" s="189" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E62" s="127"/>
       <c r="F62" s="310" t="s">
@@ -15297,7 +15304,7 @@
         <v>43710</v>
       </c>
       <c r="D64" s="189" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="E64" s="118"/>
       <c r="F64" s="198"/>
@@ -15377,7 +15384,7 @@
         <v>26372</v>
       </c>
       <c r="D65" s="189" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E65" s="118"/>
       <c r="F65" s="194"/>
@@ -15389,7 +15396,7 @@
         <v>238485</v>
       </c>
       <c r="J65" s="200" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="K65" s="196">
         <v>238485</v>
@@ -15537,7 +15544,7 @@
         <v>38895</v>
       </c>
       <c r="D67" s="189" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="E67" s="118"/>
       <c r="F67" s="194"/>
@@ -15617,7 +15624,7 @@
         <v>23800</v>
       </c>
       <c r="D68" s="189" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="E68" s="118"/>
       <c r="F68" s="194"/>
@@ -15629,7 +15636,7 @@
         <v>58450</v>
       </c>
       <c r="J68" s="184" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="K68" s="196">
         <v>58450</v>
@@ -15697,7 +15704,7 @@
         <v>24006</v>
       </c>
       <c r="D69" s="189" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E69" s="103"/>
       <c r="F69" s="194"/>
@@ -15709,7 +15716,7 @@
         <v>187000</v>
       </c>
       <c r="J69" s="202" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="K69" s="196">
         <v>187000</v>
@@ -15789,7 +15796,7 @@
         <v>381715</v>
       </c>
       <c r="J70" s="202" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="K70" s="196">
         <v>381715</v>
@@ -15869,7 +15876,7 @@
         <v>190615</v>
       </c>
       <c r="J71" s="110" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="K71" s="196">
         <v>190615</v>
@@ -15942,14 +15949,14 @@
       <c r="E72" s="119"/>
       <c r="F72" s="201"/>
       <c r="G72" s="195" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="H72" s="195"/>
       <c r="I72" s="111">
         <v>14000</v>
       </c>
       <c r="J72" s="184" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="K72" s="196">
         <v>14000</v>
@@ -16022,14 +16029,14 @@
       <c r="E73" s="119"/>
       <c r="F73" s="201"/>
       <c r="G73" s="195" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="H73" s="195"/>
       <c r="I73" s="111">
         <v>4600</v>
       </c>
       <c r="J73" s="184" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="K73" s="196">
         <v>4600</v>
@@ -16097,19 +16104,19 @@
         <v>14000</v>
       </c>
       <c r="D74" s="186" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="E74" s="119"/>
       <c r="F74" s="201"/>
       <c r="G74" s="195" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="H74" s="195"/>
       <c r="I74" s="111">
         <v>15000</v>
       </c>
       <c r="J74" s="184" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="K74" s="196">
         <v>15000</v>
@@ -16177,19 +16184,19 @@
         <v>6000</v>
       </c>
       <c r="D75" s="186" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E75" s="118"/>
       <c r="F75" s="201"/>
       <c r="G75" s="195" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="H75" s="195"/>
       <c r="I75" s="111">
         <v>9600</v>
       </c>
       <c r="J75" s="111" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="K75" s="196">
         <v>9600</v>
@@ -16404,14 +16411,14 @@
     </row>
     <row r="78" spans="1:61" ht="12.75" customHeight="1">
       <c r="A78" s="185" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B78" s="183"/>
       <c r="C78" s="182">
         <v>15705</v>
       </c>
       <c r="D78" s="183" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="E78" s="118"/>
       <c r="F78" s="201"/>
@@ -16484,14 +16491,14 @@
     </row>
     <row r="79" spans="1:61" ht="12.75" customHeight="1">
       <c r="A79" s="185" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B79" s="110"/>
       <c r="C79" s="182">
         <v>59000</v>
       </c>
       <c r="D79" s="186" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="E79" s="118"/>
       <c r="F79" s="201"/>
@@ -16503,7 +16510,7 @@
         <v>51388</v>
       </c>
       <c r="J79" s="110" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="K79" s="196">
         <v>51388</v>
@@ -16564,14 +16571,14 @@
     </row>
     <row r="80" spans="1:61" ht="12.75" customHeight="1">
       <c r="A80" s="185" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B80" s="110"/>
       <c r="C80" s="182">
         <v>5380</v>
       </c>
       <c r="D80" s="186" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="E80" s="118"/>
       <c r="F80" s="201"/>
@@ -16663,7 +16670,7 @@
         <v>48710</v>
       </c>
       <c r="J81" s="184" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="K81" s="196">
         <v>48710</v>
@@ -16731,7 +16738,7 @@
         <v>45000</v>
       </c>
       <c r="D82" s="186" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="E82" s="119"/>
       <c r="F82" s="205"/>
@@ -16743,7 +16750,7 @@
         <v>26372</v>
       </c>
       <c r="J82" s="184" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="K82" s="196">
         <v>26372</v>
@@ -16811,7 +16818,7 @@
         <v>7000</v>
       </c>
       <c r="D83" s="186" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="E83" s="119"/>
       <c r="F83" s="205"/>
@@ -16884,14 +16891,14 @@
     </row>
     <row r="84" spans="1:61" ht="12.75" customHeight="1">
       <c r="A84" s="185" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B84" s="110"/>
       <c r="C84" s="182">
         <v>41435</v>
       </c>
       <c r="D84" s="186" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="E84" s="119"/>
       <c r="F84" s="204"/>
@@ -16903,7 +16910,7 @@
         <v>20105</v>
       </c>
       <c r="J84" s="184" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="K84" s="196">
         <v>20105</v>
@@ -16964,14 +16971,14 @@
     </row>
     <row r="85" spans="1:61" ht="12.75" customHeight="1">
       <c r="A85" s="181" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B85" s="110"/>
       <c r="C85" s="182">
         <v>16000</v>
       </c>
       <c r="D85" s="186" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="E85" s="119"/>
       <c r="F85" s="204"/>
@@ -17057,7 +17064,7 @@
         <v>24006</v>
       </c>
       <c r="J86" s="184" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="K86" s="196">
         <v>24006</v>
@@ -17118,14 +17125,14 @@
     </row>
     <row r="87" spans="1:61" ht="12.75" customHeight="1">
       <c r="A87" s="185" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B87" s="110"/>
       <c r="C87" s="285">
         <v>14915</v>
       </c>
       <c r="D87" s="186" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="E87" s="118"/>
       <c r="F87" s="201"/>
@@ -17272,14 +17279,14 @@
     </row>
     <row r="89" spans="1:61" ht="12.75" customHeight="1">
       <c r="A89" s="185" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B89" s="183"/>
       <c r="C89" s="182">
         <v>6540</v>
       </c>
       <c r="D89" s="189" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="E89" s="118"/>
       <c r="F89" s="201"/>
@@ -17352,14 +17359,14 @@
     </row>
     <row r="90" spans="1:61" ht="12.6" customHeight="1">
       <c r="A90" s="185" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B90" s="183"/>
       <c r="C90" s="182">
         <v>8000</v>
       </c>
       <c r="D90" s="183" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="E90" s="118"/>
       <c r="F90" s="201"/>
@@ -17445,7 +17452,7 @@
         <v>19000</v>
       </c>
       <c r="J91" s="111" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="K91" s="196">
         <v>19000</v>
@@ -17518,7 +17525,7 @@
         <v>6000</v>
       </c>
       <c r="J92" s="184" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="K92" s="196">
         <v>6000</v>
@@ -17644,7 +17651,7 @@
     </row>
     <row r="94" spans="1:61" ht="14.25" customHeight="1">
       <c r="A94" s="185" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B94" s="183" t="s">
         <v>126</v>
@@ -17653,7 +17660,7 @@
         <v>1000</v>
       </c>
       <c r="D94" s="183" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="F94" s="194"/>
       <c r="G94" s="199" t="s">
@@ -17806,25 +17813,25 @@
     </row>
     <row r="96" spans="1:61">
       <c r="A96" s="185" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B96" s="110"/>
       <c r="C96" s="182">
         <v>2100</v>
       </c>
       <c r="D96" s="186" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="F96" s="205"/>
       <c r="G96" s="199" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="H96" s="199"/>
       <c r="I96" s="200">
         <v>26715</v>
       </c>
       <c r="J96" s="202" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="K96" s="196">
         <v>26715</v>
@@ -18055,14 +18062,14 @@
       </c>
       <c r="F99" s="205"/>
       <c r="G99" s="199" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="H99" s="199"/>
       <c r="I99" s="200">
         <v>11000</v>
       </c>
       <c r="J99" s="202" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="K99" s="196">
         <v>11000</v>
@@ -18127,7 +18134,7 @@
         <v>2070</v>
       </c>
       <c r="D100" s="186" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="F100" s="205"/>
       <c r="G100" s="199" t="s">
@@ -18196,27 +18203,27 @@
     </row>
     <row r="101" spans="1:61">
       <c r="A101" s="291" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B101" s="292" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C101" s="293">
         <v>570</v>
       </c>
       <c r="D101" s="192" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="F101" s="205"/>
       <c r="G101" s="199" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="H101" s="199"/>
       <c r="I101" s="200">
         <v>51435</v>
       </c>
       <c r="J101" s="202" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="K101" s="196">
         <v>51435</v>
@@ -18286,7 +18293,7 @@
         <v>2000</v>
       </c>
       <c r="J102" s="202" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="K102" s="196">
         <v>2000</v>
@@ -18344,25 +18351,25 @@
     </row>
     <row r="103" spans="1:61">
       <c r="A103" s="185" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B103" s="183"/>
       <c r="C103" s="182">
         <v>2060</v>
       </c>
       <c r="D103" s="183" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="F103" s="205"/>
       <c r="G103" s="199" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="H103" s="199"/>
       <c r="I103" s="200">
         <v>5000</v>
       </c>
       <c r="J103" s="202" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="K103" s="196">
         <v>5000</v>
@@ -18429,7 +18436,7 @@
         <v>2340</v>
       </c>
       <c r="D104" s="183" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="F104" s="205"/>
       <c r="G104" s="199"/>
@@ -18490,25 +18497,25 @@
     </row>
     <row r="105" spans="1:61">
       <c r="A105" s="185" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B105" s="183"/>
       <c r="C105" s="182">
         <v>20000</v>
       </c>
       <c r="D105" s="183" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="F105" s="205"/>
       <c r="G105" s="199" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="H105" s="199"/>
       <c r="I105" s="200">
         <v>3445</v>
       </c>
       <c r="J105" s="202" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="K105" s="196">
         <v>3445</v>
@@ -18566,14 +18573,14 @@
     </row>
     <row r="106" spans="1:61">
       <c r="A106" s="185" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B106" s="110"/>
       <c r="C106" s="182">
         <v>17500</v>
       </c>
       <c r="D106" s="186" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="F106" s="205"/>
       <c r="G106" s="199"/>
@@ -18647,14 +18654,14 @@
       </c>
       <c r="F107" s="205"/>
       <c r="G107" s="199" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="H107" s="199"/>
       <c r="I107" s="200">
         <v>5000</v>
       </c>
       <c r="J107" s="202" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="K107" s="196">
         <v>5000</v>
@@ -18791,20 +18798,20 @@
         <v>30000</v>
       </c>
       <c r="D109" s="183" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="F109" s="205"/>
       <c r="G109" s="199" t="s">
+        <v>181</v>
+      </c>
+      <c r="H109" s="199" t="s">
         <v>182</v>
-      </c>
-      <c r="H109" s="199" t="s">
-        <v>183</v>
       </c>
       <c r="I109" s="200">
         <v>100</v>
       </c>
       <c r="J109" s="202" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="K109" s="196">
         <v>100</v>
@@ -19231,16 +19238,16 @@
       <c r="D115" s="214"/>
       <c r="F115" s="194"/>
       <c r="G115" s="215" t="s">
+        <v>157</v>
+      </c>
+      <c r="H115" s="215" t="s">
         <v>158</v>
-      </c>
-      <c r="H115" s="215" t="s">
-        <v>159</v>
       </c>
       <c r="I115" s="111">
         <v>1840</v>
       </c>
       <c r="J115" s="184" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="K115" s="196">
         <v>1840</v>
@@ -19306,7 +19313,7 @@
       <c r="D116" s="103"/>
       <c r="F116" s="201"/>
       <c r="G116" s="195" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="H116" s="195">
         <v>44075</v>
@@ -19315,7 +19322,7 @@
         <v>2100</v>
       </c>
       <c r="J116" s="184" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="K116" s="196">
         <v>2100</v>
@@ -19527,7 +19534,7 @@
         <v>4070</v>
       </c>
       <c r="J119" s="184" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="K119" s="196">
         <v>4070</v>
@@ -19593,7 +19600,7 @@
       <c r="D120" s="165"/>
       <c r="F120" s="201"/>
       <c r="G120" s="195" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="H120" s="195"/>
       <c r="I120" s="111">
@@ -20110,7 +20117,7 @@
         <v>24000</v>
       </c>
       <c r="J127" s="184" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="K127" s="196">
         <v>24000</v>
@@ -20253,7 +20260,7 @@
         <v>5930</v>
       </c>
       <c r="J129" s="184" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="K129" s="196">
         <v>5930</v>
@@ -20395,7 +20402,7 @@
         <v>5000</v>
       </c>
       <c r="J131" s="184" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="K131" s="196">
         <v>5000</v>
@@ -20466,7 +20473,7 @@
         <v>7300</v>
       </c>
       <c r="J132" s="184" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="K132" s="196">
         <v>7300</v>
@@ -20537,7 +20544,7 @@
         <v>10000</v>
       </c>
       <c r="J133" s="110" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="K133" s="196">
         <v>10000</v>
@@ -20680,16 +20687,16 @@
       <c r="E135" s="103"/>
       <c r="F135" s="195"/>
       <c r="G135" s="195" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="H135" s="195" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="I135" s="111">
         <v>9300</v>
       </c>
       <c r="J135" s="110" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="K135" s="196">
         <v>9300</v>
@@ -21950,14 +21957,14 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z321"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="10" ySplit="14" topLeftCell="K35" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="10" ySplit="14" topLeftCell="K29" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="K1" sqref="K1"/>
       <selection pane="bottomLeft" activeCell="A15" sqref="A15"/>
-      <selection pane="bottomRight" activeCell="P43" sqref="P43"/>
+      <selection pane="bottomRight" activeCell="O35" sqref="O35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -21968,94 +21975,94 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="23.25">
-      <c r="A1" s="325" t="s">
+      <c r="A1" s="333" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="325"/>
-      <c r="C1" s="325"/>
-      <c r="D1" s="325"/>
-      <c r="E1" s="325"/>
-      <c r="F1" s="325"/>
-      <c r="G1" s="325"/>
-      <c r="H1" s="325"/>
-      <c r="I1" s="325"/>
-      <c r="J1" s="325"/>
-      <c r="K1" s="325"/>
-      <c r="L1" s="325"/>
-      <c r="M1" s="325"/>
-      <c r="N1" s="325"/>
-      <c r="O1" s="325"/>
-      <c r="P1" s="325"/>
-      <c r="Q1" s="325"/>
-      <c r="R1" s="325"/>
-      <c r="S1" s="325"/>
+      <c r="B1" s="333"/>
+      <c r="C1" s="333"/>
+      <c r="D1" s="333"/>
+      <c r="E1" s="333"/>
+      <c r="F1" s="333"/>
+      <c r="G1" s="333"/>
+      <c r="H1" s="333"/>
+      <c r="I1" s="333"/>
+      <c r="J1" s="333"/>
+      <c r="K1" s="333"/>
+      <c r="L1" s="333"/>
+      <c r="M1" s="333"/>
+      <c r="N1" s="333"/>
+      <c r="O1" s="333"/>
+      <c r="P1" s="333"/>
+      <c r="Q1" s="333"/>
+      <c r="R1" s="333"/>
+      <c r="S1" s="333"/>
     </row>
     <row r="2" spans="1:26" s="235" customFormat="1" ht="18">
-      <c r="A2" s="326" t="s">
+      <c r="A2" s="334" t="s">
         <v>131</v>
       </c>
-      <c r="B2" s="326"/>
-      <c r="C2" s="326"/>
-      <c r="D2" s="326"/>
-      <c r="E2" s="326"/>
-      <c r="F2" s="326"/>
-      <c r="G2" s="326"/>
-      <c r="H2" s="326"/>
-      <c r="I2" s="326"/>
-      <c r="J2" s="326"/>
-      <c r="K2" s="326"/>
-      <c r="L2" s="326"/>
-      <c r="M2" s="326"/>
-      <c r="N2" s="326"/>
-      <c r="O2" s="326"/>
-      <c r="P2" s="326"/>
-      <c r="Q2" s="326"/>
-      <c r="R2" s="326"/>
-      <c r="S2" s="326"/>
+      <c r="B2" s="334"/>
+      <c r="C2" s="334"/>
+      <c r="D2" s="334"/>
+      <c r="E2" s="334"/>
+      <c r="F2" s="334"/>
+      <c r="G2" s="334"/>
+      <c r="H2" s="334"/>
+      <c r="I2" s="334"/>
+      <c r="J2" s="334"/>
+      <c r="K2" s="334"/>
+      <c r="L2" s="334"/>
+      <c r="M2" s="334"/>
+      <c r="N2" s="334"/>
+      <c r="O2" s="334"/>
+      <c r="P2" s="334"/>
+      <c r="Q2" s="334"/>
+      <c r="R2" s="334"/>
+      <c r="S2" s="334"/>
     </row>
     <row r="3" spans="1:26" s="235" customFormat="1">
-      <c r="A3" s="327"/>
-      <c r="B3" s="327"/>
-      <c r="C3" s="327"/>
-      <c r="D3" s="327"/>
-      <c r="E3" s="327"/>
-      <c r="F3" s="327"/>
-      <c r="G3" s="327"/>
-      <c r="H3" s="327"/>
-      <c r="I3" s="327"/>
-      <c r="J3" s="327"/>
-      <c r="K3" s="327"/>
-      <c r="L3" s="327"/>
-      <c r="M3" s="327"/>
-      <c r="N3" s="327"/>
-      <c r="O3" s="327"/>
-      <c r="P3" s="327"/>
-      <c r="Q3" s="327"/>
-      <c r="R3" s="327"/>
-      <c r="S3" s="327"/>
+      <c r="A3" s="335"/>
+      <c r="B3" s="335"/>
+      <c r="C3" s="335"/>
+      <c r="D3" s="335"/>
+      <c r="E3" s="335"/>
+      <c r="F3" s="335"/>
+      <c r="G3" s="335"/>
+      <c r="H3" s="335"/>
+      <c r="I3" s="335"/>
+      <c r="J3" s="335"/>
+      <c r="K3" s="335"/>
+      <c r="L3" s="335"/>
+      <c r="M3" s="335"/>
+      <c r="N3" s="335"/>
+      <c r="O3" s="335"/>
+      <c r="P3" s="335"/>
+      <c r="Q3" s="335"/>
+      <c r="R3" s="335"/>
+      <c r="S3" s="335"/>
     </row>
     <row r="4" spans="1:26" s="236" customFormat="1" ht="16.5" thickBot="1">
-      <c r="A4" s="328" t="s">
-        <v>188</v>
-      </c>
-      <c r="B4" s="329"/>
-      <c r="C4" s="329"/>
-      <c r="D4" s="329"/>
-      <c r="E4" s="329"/>
-      <c r="F4" s="329"/>
-      <c r="G4" s="329"/>
-      <c r="H4" s="329"/>
-      <c r="I4" s="329"/>
-      <c r="J4" s="329"/>
-      <c r="K4" s="329"/>
-      <c r="L4" s="329"/>
-      <c r="M4" s="329"/>
-      <c r="N4" s="329"/>
-      <c r="O4" s="329"/>
-      <c r="P4" s="329"/>
-      <c r="Q4" s="329"/>
-      <c r="R4" s="329"/>
-      <c r="S4" s="330"/>
+      <c r="A4" s="336" t="s">
+        <v>187</v>
+      </c>
+      <c r="B4" s="337"/>
+      <c r="C4" s="337"/>
+      <c r="D4" s="337"/>
+      <c r="E4" s="337"/>
+      <c r="F4" s="337"/>
+      <c r="G4" s="337"/>
+      <c r="H4" s="337"/>
+      <c r="I4" s="337"/>
+      <c r="J4" s="337"/>
+      <c r="K4" s="337"/>
+      <c r="L4" s="337"/>
+      <c r="M4" s="337"/>
+      <c r="N4" s="337"/>
+      <c r="O4" s="337"/>
+      <c r="P4" s="337"/>
+      <c r="Q4" s="337"/>
+      <c r="R4" s="337"/>
+      <c r="S4" s="338"/>
       <c r="U4" s="119"/>
       <c r="V4" s="8"/>
       <c r="W4" s="8"/>
@@ -22064,59 +22071,59 @@
       <c r="Z4" s="29"/>
     </row>
     <row r="5" spans="1:26" s="238" customFormat="1">
-      <c r="A5" s="331" t="s">
+      <c r="A5" s="339" t="s">
         <v>132</v>
       </c>
-      <c r="B5" s="333" t="s">
+      <c r="B5" s="341" t="s">
         <v>133</v>
       </c>
-      <c r="C5" s="335" t="s">
+      <c r="C5" s="327" t="s">
         <v>134</v>
       </c>
-      <c r="D5" s="335" t="s">
+      <c r="D5" s="327" t="s">
         <v>135</v>
       </c>
-      <c r="E5" s="335" t="s">
+      <c r="E5" s="327" t="s">
         <v>136</v>
       </c>
-      <c r="F5" s="335" t="s">
+      <c r="F5" s="327" t="s">
         <v>137</v>
       </c>
-      <c r="G5" s="335" t="s">
+      <c r="G5" s="327" t="s">
         <v>138</v>
       </c>
-      <c r="H5" s="335" t="s">
+      <c r="H5" s="327" t="s">
         <v>139</v>
       </c>
-      <c r="I5" s="335" t="s">
-        <v>208</v>
-      </c>
-      <c r="J5" s="335" t="s">
+      <c r="I5" s="327" t="s">
+        <v>207</v>
+      </c>
+      <c r="J5" s="327" t="s">
         <v>140</v>
       </c>
-      <c r="K5" s="335" t="s">
+      <c r="K5" s="327" t="s">
         <v>141</v>
       </c>
-      <c r="L5" s="335" t="s">
+      <c r="L5" s="327" t="s">
         <v>142</v>
       </c>
-      <c r="M5" s="335" t="s">
+      <c r="M5" s="327" t="s">
         <v>143</v>
       </c>
-      <c r="N5" s="335" t="s">
+      <c r="N5" s="327" t="s">
         <v>144</v>
       </c>
-      <c r="O5" s="341" t="s">
+      <c r="O5" s="329" t="s">
         <v>145</v>
       </c>
-      <c r="P5" s="343" t="s">
+      <c r="P5" s="331" t="s">
         <v>146</v>
       </c>
-      <c r="Q5" s="339" t="s">
+      <c r="Q5" s="325" t="s">
         <v>31</v>
       </c>
-      <c r="R5" s="337" t="s">
-        <v>147</v>
+      <c r="R5" s="343" t="s">
+        <v>233</v>
       </c>
       <c r="S5" s="237" t="s">
         <v>4</v>
@@ -22128,26 +22135,26 @@
       <c r="Y5" s="240"/>
     </row>
     <row r="6" spans="1:26" s="238" customFormat="1" ht="13.5" thickBot="1">
-      <c r="A6" s="332"/>
-      <c r="B6" s="334"/>
-      <c r="C6" s="336"/>
-      <c r="D6" s="336"/>
-      <c r="E6" s="336"/>
-      <c r="F6" s="336"/>
-      <c r="G6" s="336"/>
-      <c r="H6" s="336"/>
-      <c r="I6" s="336"/>
-      <c r="J6" s="336"/>
-      <c r="K6" s="336"/>
-      <c r="L6" s="336"/>
-      <c r="M6" s="336"/>
-      <c r="N6" s="336"/>
-      <c r="O6" s="342"/>
-      <c r="P6" s="344"/>
-      <c r="Q6" s="340"/>
-      <c r="R6" s="338"/>
+      <c r="A6" s="340"/>
+      <c r="B6" s="342"/>
+      <c r="C6" s="328"/>
+      <c r="D6" s="328"/>
+      <c r="E6" s="328"/>
+      <c r="F6" s="328"/>
+      <c r="G6" s="328"/>
+      <c r="H6" s="328"/>
+      <c r="I6" s="328"/>
+      <c r="J6" s="328"/>
+      <c r="K6" s="328"/>
+      <c r="L6" s="328"/>
+      <c r="M6" s="328"/>
+      <c r="N6" s="328"/>
+      <c r="O6" s="330"/>
+      <c r="P6" s="332"/>
+      <c r="Q6" s="326"/>
+      <c r="R6" s="344"/>
       <c r="S6" s="242" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="U6" s="243"/>
       <c r="V6" s="244"/>
@@ -22158,7 +22165,7 @@
     </row>
     <row r="7" spans="1:26" s="22" customFormat="1">
       <c r="A7" s="246" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B7" s="247">
         <v>500</v>
@@ -22202,7 +22209,7 @@
     </row>
     <row r="8" spans="1:26" s="22" customFormat="1">
       <c r="A8" s="246" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B8" s="247">
         <v>700</v>
@@ -22242,7 +22249,7 @@
     </row>
     <row r="9" spans="1:26" s="22" customFormat="1">
       <c r="A9" s="246" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B9" s="254">
         <v>1500</v>
@@ -22277,14 +22284,14 @@
       <c r="U9" s="10"/>
       <c r="V9" s="10"/>
       <c r="W9" s="5" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="X9" s="48"/>
       <c r="Y9" s="5"/>
     </row>
     <row r="10" spans="1:26" s="22" customFormat="1">
       <c r="A10" s="246" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B10" s="254">
         <v>800</v>
@@ -22326,7 +22333,7 @@
     </row>
     <row r="11" spans="1:26" s="22" customFormat="1">
       <c r="A11" s="246" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B11" s="254">
         <v>500</v>
@@ -22370,7 +22377,7 @@
     </row>
     <row r="12" spans="1:26" s="22" customFormat="1">
       <c r="A12" s="246" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B12" s="254">
         <v>800</v>
@@ -22414,7 +22421,7 @@
     </row>
     <row r="13" spans="1:26" s="22" customFormat="1">
       <c r="A13" s="246" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B13" s="254">
         <v>1000</v>
@@ -22458,7 +22465,7 @@
     </row>
     <row r="14" spans="1:26" s="22" customFormat="1">
       <c r="A14" s="246" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B14" s="254">
         <v>800</v>
@@ -22502,7 +22509,7 @@
     </row>
     <row r="15" spans="1:26" s="22" customFormat="1">
       <c r="A15" s="246" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B15" s="254">
         <v>1500</v>
@@ -22550,7 +22557,7 @@
     </row>
     <row r="16" spans="1:26" s="22" customFormat="1">
       <c r="A16" s="246" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B16" s="254"/>
       <c r="C16" s="247">
@@ -22596,7 +22603,7 @@
     </row>
     <row r="17" spans="1:25" s="22" customFormat="1">
       <c r="A17" s="246" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B17" s="254">
         <v>400</v>
@@ -22642,7 +22649,7 @@
     </row>
     <row r="18" spans="1:25" s="22" customFormat="1">
       <c r="A18" s="246" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B18" s="254">
         <v>2500</v>
@@ -22686,7 +22693,7 @@
     </row>
     <row r="19" spans="1:25" s="22" customFormat="1">
       <c r="A19" s="246" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B19" s="254"/>
       <c r="C19" s="247">
@@ -22728,7 +22735,7 @@
     </row>
     <row r="20" spans="1:25" s="22" customFormat="1">
       <c r="A20" s="246" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B20" s="254">
         <v>800</v>
@@ -22770,7 +22777,7 @@
     </row>
     <row r="21" spans="1:25" s="22" customFormat="1">
       <c r="A21" s="246" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B21" s="254">
         <v>1600</v>
@@ -22812,7 +22819,7 @@
     </row>
     <row r="22" spans="1:25" s="22" customFormat="1">
       <c r="A22" s="246" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B22" s="254">
         <v>1000</v>
@@ -22852,7 +22859,7 @@
     </row>
     <row r="23" spans="1:25" s="22" customFormat="1">
       <c r="A23" s="246" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B23" s="254">
         <v>300</v>
@@ -22890,7 +22897,7 @@
     </row>
     <row r="24" spans="1:25" s="262" customFormat="1">
       <c r="A24" s="246" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B24" s="254">
         <v>500</v>
@@ -22932,7 +22939,7 @@
     </row>
     <row r="25" spans="1:25" s="22" customFormat="1">
       <c r="A25" s="246" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B25" s="254">
         <v>1200</v>
@@ -22975,7 +22982,7 @@
     </row>
     <row r="26" spans="1:25" s="262" customFormat="1">
       <c r="A26" s="246" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B26" s="254">
         <v>800</v>
@@ -23017,7 +23024,7 @@
     </row>
     <row r="27" spans="1:25" s="22" customFormat="1">
       <c r="A27" s="246" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B27" s="254">
         <v>500</v>
@@ -23055,7 +23062,7 @@
     </row>
     <row r="28" spans="1:25" s="22" customFormat="1">
       <c r="A28" s="246" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B28" s="254">
         <v>1400</v>
@@ -23097,7 +23104,7 @@
     </row>
     <row r="29" spans="1:25" s="22" customFormat="1">
       <c r="A29" s="246" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B29" s="254">
         <v>1000</v>
@@ -23135,7 +23142,7 @@
     </row>
     <row r="30" spans="1:25" s="22" customFormat="1">
       <c r="A30" s="246" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B30" s="254">
         <v>500</v>
@@ -23177,7 +23184,7 @@
     </row>
     <row r="31" spans="1:25" s="22" customFormat="1">
       <c r="A31" s="246" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B31" s="254">
         <v>700</v>
@@ -23221,7 +23228,7 @@
     </row>
     <row r="32" spans="1:25" s="22" customFormat="1">
       <c r="A32" s="246" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B32" s="254">
         <v>1500</v>
@@ -23253,10 +23260,12 @@
         <v>10000</v>
       </c>
       <c r="Q32" s="255"/>
-      <c r="R32" s="257"/>
+      <c r="R32" s="257">
+        <v>3710</v>
+      </c>
       <c r="S32" s="251">
         <f t="shared" si="0"/>
-        <v>13129</v>
+        <v>16839</v>
       </c>
       <c r="T32" s="252"/>
     </row>
@@ -23387,7 +23396,7 @@
     </row>
     <row r="38" spans="1:20" s="235" customFormat="1" ht="13.5" thickBot="1">
       <c r="A38" s="271" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B38" s="272">
         <f>SUM(B7:B37)</f>
@@ -23455,11 +23464,11 @@
       </c>
       <c r="R38" s="274">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>3710</v>
       </c>
       <c r="S38" s="275">
         <f>SUM(S7:S37)</f>
-        <v>65193</v>
+        <v>68903</v>
       </c>
     </row>
     <row r="39" spans="1:20">
@@ -25464,12 +25473,6 @@
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="Q5:Q6"/>
-    <mergeCell ref="L5:L6"/>
-    <mergeCell ref="M5:M6"/>
-    <mergeCell ref="N5:N6"/>
-    <mergeCell ref="O5:O6"/>
-    <mergeCell ref="P5:P6"/>
     <mergeCell ref="A1:S1"/>
     <mergeCell ref="A2:S2"/>
     <mergeCell ref="A3:S3"/>
@@ -25486,6 +25489,12 @@
     <mergeCell ref="I5:I6"/>
     <mergeCell ref="J5:J6"/>
     <mergeCell ref="K5:K6"/>
+    <mergeCell ref="Q5:Q6"/>
+    <mergeCell ref="L5:L6"/>
+    <mergeCell ref="M5:M6"/>
+    <mergeCell ref="N5:N6"/>
+    <mergeCell ref="O5:O6"/>
+    <mergeCell ref="P5:P6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
